--- a/Squads/E0/Bournemouth_Brentford_squad.xlsx
+++ b/Squads/E0/Bournemouth_Brentford_squad.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="271">
   <si>
     <t>Rk</t>
   </si>
@@ -90,627 +90,630 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1779</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>2558</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>1238</t>
-  </si>
-  <si>
-    <t>1736</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2267</t>
-  </si>
-  <si>
-    <t>2585</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1168</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>2277</t>
-  </si>
-  <si>
-    <t>2358</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>808</t>
+    <t>2236</t>
   </si>
   <si>
     <t>1131</t>
   </si>
   <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1589</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>1554</t>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>2282</t>
   </si>
   <si>
     <t>2575</t>
   </si>
   <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>2234</t>
+  </si>
+  <si>
+    <t>2602</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>2292</t>
+  </si>
+  <si>
+    <t>2374</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>1566</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>2452</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1567</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>2085</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>1650</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>2468</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>2139</t>
+  </si>
+  <si>
+    <t>2266</t>
+  </si>
+  <si>
+    <t>2446</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>Marcos Senesi</t>
+  </si>
+  <si>
+    <t>Vitaly Janelt</t>
+  </si>
+  <si>
+    <t>Christian Nørgaard</t>
+  </si>
+  <si>
+    <t>Frank Onyeka</t>
+  </si>
+  <si>
+    <t>Neal Maupay</t>
+  </si>
+  <si>
+    <t>Ryan Christie</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Yoane Wissa</t>
+  </si>
+  <si>
+    <t>Lewis Cook</t>
+  </si>
+  <si>
+    <t>Justin Kluivert</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Antoine Semenyo</t>
+  </si>
+  <si>
+    <t>Illia Zabarnyi</t>
+  </si>
+  <si>
+    <t>Kristoffer Ajer</t>
+  </si>
+  <si>
+    <t>Saman Ghoddos</t>
+  </si>
+  <si>
+    <t>Aaron Hickey</t>
+  </si>
+  <si>
+    <t>Mathias Jørgensen</t>
+  </si>
+  <si>
+    <t>Sergio Reguilón</t>
+  </si>
+  <si>
+    <t>Philip Billing</t>
+  </si>
+  <si>
+    <t>Milos Kerkez</t>
+  </si>
+  <si>
+    <t>Alex Scott</t>
+  </si>
+  <si>
+    <t>Dominic Solanke</t>
+  </si>
+  <si>
+    <t>Marcus Tavernier</t>
+  </si>
+  <si>
+    <t>Nathan Collins</t>
+  </si>
+  <si>
+    <t>Mark Flekken</t>
+  </si>
+  <si>
+    <t>Mathias Jensen</t>
+  </si>
+  <si>
+    <t>Ivan Toney</t>
+  </si>
+  <si>
+    <t>Lloyd Kelly</t>
+  </si>
+  <si>
+    <t>Chris Mepham</t>
+  </si>
+  <si>
+    <t>Dango Ouattara</t>
+  </si>
+  <si>
+    <t>Mikkel Damsgaard</t>
+  </si>
+  <si>
+    <t>Bryan Mbeumo</t>
+  </si>
+  <si>
+    <t>Yehor Yarmoliuk</t>
+  </si>
+  <si>
+    <t>Max Aarons</t>
+  </si>
+  <si>
+    <t>Jaidon Anthony</t>
+  </si>
+  <si>
+    <t>David Brooks</t>
+  </si>
+  <si>
+    <t>Enes Ünal</t>
+  </si>
+  <si>
+    <t>Shandon Baptiste</t>
+  </si>
+  <si>
+    <t>Rico Henry</t>
+  </si>
+  <si>
+    <t>Ben Mee</t>
+  </si>
+  <si>
+    <t>Ethan Pinnock</t>
+  </si>
+  <si>
+    <t>Mads Roerslev</t>
+  </si>
+  <si>
+    <t>Tyler Adams</t>
+  </si>
+  <si>
+    <t>James Hill</t>
+  </si>
+  <si>
+    <t>Kieffer Moore</t>
+  </si>
+  <si>
+    <t>Ionuț Radu</t>
+  </si>
+  <si>
+    <t>Joe Rothwell</t>
+  </si>
+  <si>
+    <t>Dominic Sadi</t>
+  </si>
+  <si>
+    <t>Luis Sinisterra</t>
+  </si>
+  <si>
+    <t>Mark Travers</t>
+  </si>
+  <si>
+    <t>Josh Dasilva</t>
+  </si>
+  <si>
+    <t>Keane Lewis-Potter</t>
+  </si>
+  <si>
+    <t>Michael Olakigbe</t>
+  </si>
+  <si>
+    <t>Myles Peart-Harris</t>
+  </si>
+  <si>
+    <t>Kevin Schade</t>
+  </si>
+  <si>
+    <t>Thomas Strakosha</t>
+  </si>
+  <si>
+    <t>ar ARG</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>dk DEN</t>
+  </si>
+  <si>
+    <t>ng NGA</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>sct SCO</t>
+  </si>
+  <si>
+    <t>eng ENG</t>
+  </si>
+  <si>
+    <t>cd COD</t>
+  </si>
+  <si>
+    <t>nl NED</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>gh GHA</t>
+  </si>
+  <si>
+    <t>ua UKR</t>
+  </si>
+  <si>
+    <t>no NOR</t>
+  </si>
+  <si>
+    <t>ir IRN</t>
+  </si>
+  <si>
+    <t>es ESP</t>
+  </si>
+  <si>
+    <t>hu HUN</t>
+  </si>
+  <si>
+    <t>ie IRL</t>
+  </si>
+  <si>
+    <t>wls WAL</t>
+  </si>
+  <si>
+    <t>bf BFA</t>
+  </si>
+  <si>
+    <t>cm CMR</t>
+  </si>
+  <si>
+    <t>tr TUR</t>
+  </si>
+  <si>
+    <t>gd GRN</t>
+  </si>
+  <si>
+    <t>jm JAM</t>
+  </si>
+  <si>
+    <t>us USA</t>
+  </si>
+  <si>
+    <t>ro ROU</t>
+  </si>
+  <si>
+    <t>co COL</t>
+  </si>
+  <si>
+    <t>al ALB</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>FW,DF</t>
+  </si>
+  <si>
+    <t>DF,FW</t>
+  </si>
+  <si>
+    <t>DF,MF</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>eng Premier League</t>
+  </si>
+  <si>
+    <t>26-363</t>
+  </si>
+  <si>
+    <t>25-363</t>
+  </si>
+  <si>
+    <t>30-058</t>
+  </si>
+  <si>
+    <t>26-127</t>
+  </si>
+  <si>
+    <t>27-267</t>
+  </si>
+  <si>
+    <t>29-075</t>
+  </si>
+  <si>
+    <t>33-008</t>
+  </si>
+  <si>
+    <t>27-247</t>
+  </si>
+  <si>
+    <t>27-094</t>
+  </si>
+  <si>
+    <t>25-002</t>
+  </si>
+  <si>
+    <t>34-293</t>
+  </si>
+  <si>
+    <t>24-121</t>
+  </si>
+  <si>
+    <t>21-249</t>
+  </si>
+  <si>
+    <t>26-020</t>
+  </si>
+  <si>
+    <t>30-244</t>
+  </si>
+  <si>
+    <t>21-332</t>
+  </si>
+  <si>
+    <t>34-014</t>
+  </si>
+  <si>
+    <t>27-143</t>
+  </si>
+  <si>
+    <t>27-331</t>
+  </si>
+  <si>
+    <t>20-182</t>
+  </si>
+  <si>
+    <t>20-260</t>
+  </si>
+  <si>
+    <t>26-236</t>
+  </si>
+  <si>
+    <t>25-046</t>
+  </si>
+  <si>
+    <t>23-007</t>
+  </si>
+  <si>
+    <t>30-329</t>
+  </si>
+  <si>
+    <t>28-127</t>
+  </si>
+  <si>
+    <t>28-052</t>
+  </si>
+  <si>
+    <t>25-214</t>
+  </si>
+  <si>
+    <t>26-184</t>
+  </si>
+  <si>
+    <t>22-086</t>
+  </si>
+  <si>
+    <t>23-309</t>
+  </si>
+  <si>
+    <t>24-274</t>
+  </si>
+  <si>
+    <t>20-067</t>
+  </si>
+  <si>
+    <t>24-124</t>
+  </si>
+  <si>
+    <t>24-158</t>
+  </si>
+  <si>
+    <t>26-304</t>
+  </si>
+  <si>
+    <t>26-029</t>
+  </si>
+  <si>
+    <t>34-229</t>
+  </si>
+  <si>
+    <t>30-344</t>
+  </si>
+  <si>
+    <t>24-318</t>
+  </si>
+  <si>
+    <t>25-083</t>
+  </si>
+  <si>
+    <t>22-118</t>
+  </si>
+  <si>
+    <t>31-273</t>
+  </si>
+  <si>
+    <t>26-345</t>
+  </si>
+  <si>
+    <t>29-117</t>
+  </si>
+  <si>
+    <t>20-248</t>
+  </si>
+  <si>
+    <t>24-325</t>
+  </si>
+  <si>
+    <t>24-355</t>
+  </si>
+  <si>
+    <t>25-197</t>
+  </si>
+  <si>
+    <t>23-075</t>
+  </si>
+  <si>
+    <t>20-012</t>
+  </si>
+  <si>
+    <t>21-232</t>
+  </si>
+  <si>
+    <t>22-162</t>
+  </si>
+  <si>
+    <t>29-049</t>
+  </si>
+  <si>
+    <t>1997</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>2251</t>
-  </si>
-  <si>
-    <t>2430</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1898</t>
-  </si>
-  <si>
-    <t>2188</t>
-  </si>
-  <si>
-    <t>2318</t>
-  </si>
-  <si>
-    <t>Marcos Senesi</t>
-  </si>
-  <si>
-    <t>Vitaly Janelt</t>
-  </si>
-  <si>
-    <t>Christian Nørgaard</t>
-  </si>
-  <si>
-    <t>Frank Onyeka</t>
-  </si>
-  <si>
-    <t>Neal Maupay</t>
-  </si>
-  <si>
-    <t>Yoane Wissa</t>
-  </si>
-  <si>
-    <t>Ryan Christie</t>
-  </si>
-  <si>
-    <t>Lewis Cook</t>
-  </si>
-  <si>
-    <t>Justin Kluivert</t>
-  </si>
-  <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Antoine Semenyo</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Illia Zabarnyi</t>
-  </si>
-  <si>
-    <t>Kristoffer Ajer</t>
-  </si>
-  <si>
-    <t>Saman Ghoddos</t>
-  </si>
-  <si>
-    <t>Aaron Hickey</t>
-  </si>
-  <si>
-    <t>Mathias Jørgensen</t>
-  </si>
-  <si>
-    <t>Philip Billing</t>
-  </si>
-  <si>
-    <t>Milos Kerkez</t>
-  </si>
-  <si>
-    <t>Dominic Solanke</t>
-  </si>
-  <si>
-    <t>Marcus Tavernier</t>
-  </si>
-  <si>
-    <t>Nathan Collins</t>
-  </si>
-  <si>
-    <t>Mark Flekken</t>
-  </si>
-  <si>
-    <t>Mathias Jensen</t>
-  </si>
-  <si>
-    <t>Sergio Reguilón</t>
-  </si>
-  <si>
-    <t>Ivan Toney</t>
-  </si>
-  <si>
-    <t>Lloyd Kelly</t>
-  </si>
-  <si>
-    <t>Chris Mepham</t>
-  </si>
-  <si>
-    <t>Dango Ouattara</t>
-  </si>
-  <si>
-    <t>Alex Scott</t>
-  </si>
-  <si>
-    <t>Mikkel Damsgaard</t>
-  </si>
-  <si>
-    <t>Bryan Mbeumo</t>
-  </si>
-  <si>
-    <t>Yehor Yarmoliuk</t>
-  </si>
-  <si>
-    <t>Max Aarons</t>
-  </si>
-  <si>
-    <t>Jaidon Anthony</t>
-  </si>
-  <si>
-    <t>David Brooks</t>
-  </si>
-  <si>
-    <t>Enes Ünal</t>
-  </si>
-  <si>
-    <t>Shandon Baptiste</t>
-  </si>
-  <si>
-    <t>Rico Henry</t>
-  </si>
-  <si>
-    <t>Ben Mee</t>
-  </si>
-  <si>
-    <t>Ethan Pinnock</t>
-  </si>
-  <si>
-    <t>Mads Roerslev</t>
-  </si>
-  <si>
-    <t>Tyler Adams</t>
-  </si>
-  <si>
-    <t>James Hill</t>
-  </si>
-  <si>
-    <t>Kieffer Moore</t>
-  </si>
-  <si>
-    <t>Ionuț Radu</t>
-  </si>
-  <si>
-    <t>Joe Rothwell</t>
-  </si>
-  <si>
-    <t>Dominic Sadi</t>
-  </si>
-  <si>
-    <t>Luis Sinisterra</t>
-  </si>
-  <si>
-    <t>Mark Travers</t>
-  </si>
-  <si>
-    <t>Josh Dasilva</t>
-  </si>
-  <si>
-    <t>Keane Lewis-Potter</t>
-  </si>
-  <si>
-    <t>Michael Olakigbe</t>
-  </si>
-  <si>
-    <t>Myles Peart-Harris</t>
-  </si>
-  <si>
-    <t>Kevin Schade</t>
-  </si>
-  <si>
-    <t>Thomas Strakosha</t>
-  </si>
-  <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
-    <t>de GER</t>
-  </si>
-  <si>
-    <t>dk DEN</t>
-  </si>
-  <si>
-    <t>ng NGA</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>cd COD</t>
-  </si>
-  <si>
-    <t>sct SCO</t>
-  </si>
-  <si>
-    <t>eng ENG</t>
-  </si>
-  <si>
-    <t>nl NED</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>gh GHA</t>
-  </si>
-  <si>
-    <t>ua UKR</t>
-  </si>
-  <si>
-    <t>no NOR</t>
-  </si>
-  <si>
-    <t>ir IRN</t>
-  </si>
-  <si>
-    <t>hu HUN</t>
-  </si>
-  <si>
-    <t>ie IRL</t>
-  </si>
-  <si>
-    <t>es ESP</t>
-  </si>
-  <si>
-    <t>wls WAL</t>
-  </si>
-  <si>
-    <t>bf BFA</t>
-  </si>
-  <si>
-    <t>cm CMR</t>
-  </si>
-  <si>
-    <t>tr TUR</t>
-  </si>
-  <si>
-    <t>gd GRN</t>
-  </si>
-  <si>
-    <t>jm JAM</t>
-  </si>
-  <si>
-    <t>us USA</t>
-  </si>
-  <si>
-    <t>ro ROU</t>
-  </si>
-  <si>
-    <t>co COL</t>
-  </si>
-  <si>
-    <t>al ALB</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>FW,DF</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>DF,FW</t>
-  </si>
-  <si>
-    <t>DF,MF</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>eng Premier League</t>
-  </si>
-  <si>
-    <t>26-357</t>
-  </si>
-  <si>
-    <t>25-357</t>
-  </si>
-  <si>
-    <t>30-052</t>
-  </si>
-  <si>
-    <t>26-121</t>
-  </si>
-  <si>
-    <t>27-261</t>
-  </si>
-  <si>
-    <t>27-241</t>
-  </si>
-  <si>
-    <t>29-069</t>
-  </si>
-  <si>
-    <t>27-088</t>
-  </si>
-  <si>
-    <t>24-362</t>
-  </si>
-  <si>
-    <t>34-287</t>
-  </si>
-  <si>
-    <t>24-115</t>
-  </si>
-  <si>
-    <t>33-002</t>
-  </si>
-  <si>
-    <t>21-243</t>
-  </si>
-  <si>
-    <t>26-014</t>
-  </si>
-  <si>
-    <t>30-238</t>
-  </si>
-  <si>
-    <t>21-326</t>
-  </si>
-  <si>
-    <t>34-008</t>
-  </si>
-  <si>
-    <t>27-325</t>
-  </si>
-  <si>
-    <t>20-176</t>
-  </si>
-  <si>
-    <t>26-230</t>
-  </si>
-  <si>
-    <t>25-040</t>
-  </si>
-  <si>
-    <t>23-001</t>
-  </si>
-  <si>
-    <t>30-323</t>
-  </si>
-  <si>
-    <t>28-121</t>
-  </si>
-  <si>
-    <t>27-137</t>
-  </si>
-  <si>
-    <t>28-046</t>
-  </si>
-  <si>
-    <t>25-208</t>
-  </si>
-  <si>
-    <t>26-178</t>
-  </si>
-  <si>
-    <t>22-080</t>
-  </si>
-  <si>
-    <t>20-254</t>
-  </si>
-  <si>
-    <t>23-303</t>
-  </si>
-  <si>
-    <t>24-268</t>
-  </si>
-  <si>
-    <t>20-061</t>
-  </si>
-  <si>
-    <t>24-118</t>
-  </si>
-  <si>
-    <t>24-152</t>
-  </si>
-  <si>
-    <t>26-298</t>
-  </si>
-  <si>
-    <t>26-023</t>
-  </si>
-  <si>
-    <t>34-223</t>
-  </si>
-  <si>
-    <t>30-338</t>
-  </si>
-  <si>
-    <t>24-312</t>
-  </si>
-  <si>
-    <t>25-077</t>
-  </si>
-  <si>
-    <t>22-112</t>
-  </si>
-  <si>
-    <t>31-267</t>
-  </si>
-  <si>
-    <t>26-339</t>
-  </si>
-  <si>
-    <t>29-111</t>
-  </si>
-  <si>
-    <t>20-242</t>
-  </si>
-  <si>
-    <t>24-319</t>
-  </si>
-  <si>
-    <t>24-349</t>
-  </si>
-  <si>
-    <t>25-191</t>
-  </si>
-  <si>
-    <t>23-069</t>
-  </si>
-  <si>
-    <t>20-006</t>
-  </si>
-  <si>
-    <t>21-226</t>
-  </si>
-  <si>
-    <t>22-156</t>
-  </si>
-  <si>
-    <t>29-043</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
     <t>1994</t>
   </si>
   <si>
@@ -720,6 +723,9 @@
     <t>1995</t>
   </si>
   <si>
+    <t>1991</t>
+  </si>
+  <si>
     <t>1999</t>
   </si>
   <si>
@@ -727,9 +733,6 @@
   </si>
   <si>
     <t>2000</t>
-  </si>
-  <si>
-    <t>1991</t>
   </si>
   <si>
     <t>2002</t>
@@ -956,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2346.0</v>
+        <v>2360.0</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -980,7 +983,7 @@
         <v>231</v>
       </c>
       <c r="J2" t="n">
-        <v>22.1</v>
+        <v>23.0</v>
       </c>
       <c r="K2" t="n">
         <v>11.0</v>
@@ -995,16 +998,16 @@
         <v>38.0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="S2" t="n">
         <v>27.0</v>
@@ -1019,16 +1022,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="X2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="3">
@@ -1036,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>1188.0</v>
+        <v>1198.0</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
@@ -1057,10 +1060,10 @@
         <v>178</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J3" t="n">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="K3" t="n">
         <v>8.0</v>
@@ -1081,10 +1084,10 @@
         <v>3.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="S3" t="n">
         <v>37.0</v>
@@ -1099,16 +1102,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>176.0</v>
+        <v>179.0</v>
       </c>
       <c r="X3" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>58.2</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="4">
@@ -1116,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>1882.0</v>
+        <v>1895.0</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
@@ -1137,10 +1140,10 @@
         <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J4" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="K4" t="n">
         <v>8.0</v>
@@ -1164,7 +1167,7 @@
         <v>20.0</v>
       </c>
       <c r="R4" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="S4" t="n">
         <v>48.0</v>
@@ -1179,16 +1182,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.0</v>
+        <v>196.0</v>
       </c>
       <c r="X4" t="n">
         <v>40.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="5">
@@ -1196,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>1928.0</v>
+        <v>1941.0</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
@@ -1217,10 +1220,10 @@
         <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J5" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="K5" t="n">
         <v>8.0</v>
@@ -1241,13 +1244,13 @@
         <v>4.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="R5" t="n">
         <v>23.0</v>
       </c>
       <c r="S5" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1259,7 +1262,7 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="X5" t="n">
         <v>10.0</v>
@@ -1276,7 +1279,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>1624.0</v>
+        <v>1636.0</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -1297,7 +1300,7 @@
         <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J6" t="n">
         <v>14.5</v>
@@ -1356,7 +1359,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2701.0</v>
+        <v>527.0</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -1365,10 +1368,10 @@
         <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
         <v>176</v>
@@ -1377,10 +1380,10 @@
         <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J7" t="n">
-        <v>26.2</v>
+        <v>30.4</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -1392,43 +1395,43 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>36.0</v>
       </c>
-      <c r="O7" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>46.0</v>
-      </c>
       <c r="Z7" t="n">
-        <v>43.9</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="8">
@@ -1436,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>523.0</v>
+        <v>2406.0</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -1445,7 +1448,7 @@
         <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>174</v>
@@ -1457,13 +1460,13 @@
         <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J8" t="n">
-        <v>29.4</v>
+        <v>23.0</v>
       </c>
       <c r="K8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
@@ -1472,43 +1475,43 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>44.0</v>
+        <v>28.0</v>
       </c>
       <c r="O8" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="P8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>68.0</v>
+        <v>38.0</v>
       </c>
       <c r="R8" t="n">
-        <v>49.0</v>
+        <v>21.0</v>
       </c>
       <c r="S8" t="n">
-        <v>37.0</v>
+        <v>22.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V8" t="n">
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>211.0</v>
+        <v>86.0</v>
       </c>
       <c r="X8" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>36.8</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="9">
@@ -1516,7 +1519,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>555.0</v>
+        <v>2718.0</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -1525,10 +1528,10 @@
         <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>176</v>
@@ -1537,40 +1540,40 @@
         <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J9" t="n">
-        <v>28.0</v>
+        <v>26.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.0</v>
+        <v>48.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.0</v>
+        <v>21.0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.0</v>
+        <v>9.0</v>
       </c>
       <c r="S9" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
@@ -1579,16 +1582,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>211.0</v>
+        <v>97.0</v>
       </c>
       <c r="X9" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.0</v>
+        <v>47.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>56.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="10">
@@ -1596,16 +1599,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>1312.0</v>
+        <v>560.0</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>174</v>
@@ -1617,58 +1620,58 @@
         <v>185</v>
       </c>
       <c r="I10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J10" t="n">
-        <v>18.9</v>
+        <v>29.0</v>
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="O10" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q10" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>27.0</v>
       </c>
-      <c r="R10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>20.0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>35.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="11">
@@ -1676,16 +1679,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>1836.0</v>
+        <v>1323.0</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
         <v>174</v>
@@ -1697,10 +1700,10 @@
         <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0</v>
+        <v>19.9</v>
       </c>
       <c r="K11" t="n">
         <v>5.0</v>
@@ -1712,22 +1715,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1739,16 +1742,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>37.0</v>
+        <v>83.0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>100.0</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="12">
@@ -1756,16 +1759,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>2344.0</v>
+        <v>1849.0</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
         <v>174</v>
@@ -1777,10 +1780,10 @@
         <v>187</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J12" t="n">
-        <v>20.4</v>
+        <v>31.0</v>
       </c>
       <c r="K12" t="n">
         <v>5.0</v>
@@ -1792,25 +1795,25 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>39.0</v>
+        <v>1.0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
@@ -1819,16 +1822,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>97.0</v>
+        <v>37.0</v>
       </c>
       <c r="X12" t="n">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>36.8</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="13">
@@ -1836,16 +1839,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2391.0</v>
+        <v>2358.0</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
         <v>174</v>
@@ -1857,10 +1860,10 @@
         <v>188</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0</v>
+        <v>21.4</v>
       </c>
       <c r="K13" t="n">
         <v>5.0</v>
@@ -1872,43 +1875,43 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="O13" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="S13" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.0</v>
+        <v>98.0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.0</v>
+        <v>44.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.0</v>
+        <v>76.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>47.2</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="14">
@@ -1916,7 +1919,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2728.0</v>
+        <v>2745.0</v>
       </c>
       <c r="C14" t="s">
         <v>93</v>
@@ -1937,10 +1940,10 @@
         <v>189</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J14" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K14" t="n">
         <v>5.0</v>
@@ -1979,16 +1982,16 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>136.0</v>
+        <v>142.0</v>
       </c>
       <c r="X14" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="15">
@@ -1996,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
@@ -2017,10 +2020,10 @@
         <v>190</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J15" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="K15" t="n">
         <v>5.0</v>
@@ -2035,7 +2038,7 @@
         <v>24.0</v>
       </c>
       <c r="O15" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P15" t="n">
         <v>1.0</v>
@@ -2044,11 +2047,11 @@
         <v>20.0</v>
       </c>
       <c r="R15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>21.0</v>
       </c>
-      <c r="S15" t="n">
-        <v>20.0</v>
-      </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
@@ -2059,16 +2062,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="X15" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>73.5</v>
+        <v>72.9</v>
       </c>
     </row>
     <row r="16">
@@ -2076,7 +2079,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>944.0</v>
+        <v>953.0</v>
       </c>
       <c r="C16" t="s">
         <v>95</v>
@@ -2097,7 +2100,7 @@
         <v>191</v>
       </c>
       <c r="I16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J16" t="n">
         <v>7.9</v>
@@ -2156,13 +2159,13 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>1112.0</v>
+        <v>1121.0</v>
       </c>
       <c r="C17" t="s">
         <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
         <v>164</v>
@@ -2177,7 +2180,7 @@
         <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J17" t="n">
         <v>7.9</v>
@@ -2236,7 +2239,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1238.0</v>
+        <v>1249.0</v>
       </c>
       <c r="C18" t="s">
         <v>97</v>
@@ -2257,7 +2260,7 @@
         <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J18" t="n">
         <v>11.1</v>
@@ -2316,19 +2319,19 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>303.0</v>
+        <v>2162.0</v>
       </c>
       <c r="C19" t="s">
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>176</v>
@@ -2337,13 +2340,13 @@
         <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J19" t="n">
-        <v>15.1</v>
+        <v>10.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L19" t="n">
         <v>1.0</v>
@@ -2352,43 +2355,43 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>18.0</v>
       </c>
-      <c r="O19" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>22.0</v>
-      </c>
       <c r="Z19" t="n">
-        <v>62.1</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="20">
@@ -2396,16 +2399,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>1297.0</v>
+        <v>306.0</v>
       </c>
       <c r="C20" t="s">
         <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
         <v>174</v>
@@ -2417,10 +2420,10 @@
         <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J20" t="n">
-        <v>20.9</v>
+        <v>15.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2432,43 +2435,43 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.0</v>
+        <v>29.0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="S20" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>90.0</v>
+        <v>76.0</v>
       </c>
       <c r="X20" t="n">
-        <v>18.0</v>
+        <v>36.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>36.7</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="21">
@@ -2476,16 +2479,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2402.0</v>
+        <v>1308.0</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
         <v>174</v>
@@ -2497,37 +2500,37 @@
         <v>196</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J21" t="n">
-        <v>34.6</v>
+        <v>20.9</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="O21" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.0</v>
+        <v>52.0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="S21" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="T21" t="n">
         <v>1.0</v>
@@ -2536,19 +2539,19 @@
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W21" t="n">
-        <v>93.0</v>
+        <v>90.0</v>
       </c>
       <c r="X21" t="n">
-        <v>88.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>127.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>40.9</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="22">
@@ -2556,16 +2559,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2487.0</v>
+        <v>2342.0</v>
       </c>
       <c r="C22" t="s">
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
         <v>174</v>
@@ -2577,10 +2580,10 @@
         <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J22" t="n">
-        <v>22.6</v>
+        <v>10.9</v>
       </c>
       <c r="K22" t="n">
         <v>3.0</v>
@@ -2592,22 +2595,22 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="O22" t="n">
         <v>22.0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>114.0</v>
+        <v>35.0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="S22" t="n">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -2619,16 +2622,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>137.0</v>
+        <v>61.0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>29.5</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
@@ -2636,19 +2639,19 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>543.0</v>
+        <v>2417.0</v>
       </c>
       <c r="C23" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
         <v>176</v>
@@ -2657,10 +2660,10 @@
         <v>198</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J23" t="n">
-        <v>27.5</v>
+        <v>35.6</v>
       </c>
       <c r="K23" t="n">
         <v>3.0</v>
@@ -2672,25 +2675,25 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="O23" t="n">
-        <v>20.0</v>
+        <v>44.0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="S23" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -2699,16 +2702,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>126.0</v>
+        <v>97.0</v>
       </c>
       <c r="X23" t="n">
-        <v>66.0</v>
+        <v>92.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.0</v>
+        <v>129.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>66.0</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="24">
@@ -2716,19 +2719,19 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>859.0</v>
+        <v>2503.0</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
         <v>176</v>
@@ -2737,10 +2740,10 @@
         <v>199</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J24" t="n">
-        <v>33.5</v>
+        <v>22.6</v>
       </c>
       <c r="K24" t="n">
         <v>3.0</v>
@@ -2752,43 +2755,43 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="O24" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" t="n">
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>39.0</v>
+        <v>137.0</v>
       </c>
       <c r="X24" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>90.9</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="25">
@@ -2796,16 +2799,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>1198.0</v>
+        <v>547.0</v>
       </c>
       <c r="C25" t="s">
         <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -2817,10 +2820,10 @@
         <v>200</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J25" t="n">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="K25" t="n">
         <v>3.0</v>
@@ -2832,25 +2835,25 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="O25" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="S25" t="n">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -2859,16 +2862,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>118.0</v>
+        <v>133.0</v>
       </c>
       <c r="X25" t="n">
-        <v>5.0</v>
+        <v>69.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>31.3</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="26">
@@ -2876,16 +2879,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2148.0</v>
+        <v>868.0</v>
       </c>
       <c r="C26" t="s">
         <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
         <v>175</v>
@@ -2897,37 +2900,37 @@
         <v>201</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J26" t="n">
-        <v>9.6</v>
+        <v>34.5</v>
       </c>
       <c r="K26" t="n">
         <v>3.0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="R26" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -2939,16 +2942,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>56.0</v>
+        <v>39.0</v>
       </c>
       <c r="X26" t="n">
         <v>10.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>41.7</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="27">
@@ -2956,16 +2959,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>2538.0</v>
+        <v>1208.0</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -2977,10 +2980,10 @@
         <v>202</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J27" t="n">
-        <v>13.1</v>
+        <v>23.5</v>
       </c>
       <c r="K27" t="n">
         <v>3.0</v>
@@ -2992,43 +2995,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="R27" t="n">
         <v>21.0</v>
       </c>
-      <c r="O27" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>9.0</v>
-      </c>
       <c r="S27" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="X27" t="n">
         <v>5.0</v>
       </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>47.0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>56.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>45.6</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="28">
@@ -3036,19 +3039,19 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1293.0</v>
+        <v>2554.0</v>
       </c>
       <c r="C28" t="s">
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
         <v>176</v>
@@ -3057,13 +3060,13 @@
         <v>203</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="J28" t="n">
-        <v>16.2</v>
+        <v>14.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -3072,43 +3075,43 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="O28" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="R28" t="n">
         <v>10.0</v>
       </c>
       <c r="S28" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>112.0</v>
+        <v>48.0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.0</v>
+        <v>51.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.0</v>
+        <v>57.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>62.8</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="29">
@@ -3116,13 +3119,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1686.0</v>
+        <v>1304.0</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>164</v>
@@ -3137,10 +3140,10 @@
         <v>204</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J29" t="n">
-        <v>6.9</v>
+        <v>16.2</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3152,43 +3155,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="S29" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V29" t="n">
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>31.0</v>
+        <v>112.0</v>
       </c>
       <c r="X29" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>59.2</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="30">
@@ -3196,16 +3199,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1948.0</v>
+        <v>1698.0</v>
       </c>
       <c r="C30" t="s">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
         <v>174</v>
@@ -3217,10 +3220,10 @@
         <v>205</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J30" t="n">
-        <v>11.6</v>
+        <v>6.9</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
@@ -3232,22 +3235,22 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="O30" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="R30" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -3259,16 +3262,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>54.0</v>
+        <v>31.0</v>
       </c>
       <c r="X30" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>46.6</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="31">
@@ -3276,16 +3279,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>2328.0</v>
+        <v>1961.0</v>
       </c>
       <c r="C31" t="s">
         <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F31" t="s">
         <v>174</v>
@@ -3297,10 +3300,10 @@
         <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J31" t="n">
-        <v>10.1</v>
+        <v>12.6</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3312,22 +3315,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="O31" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="R31" t="n">
         <v>22.0</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>12.0</v>
-      </c>
       <c r="S31" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3339,16 +3342,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.0</v>
+        <v>62.0</v>
       </c>
       <c r="X31" t="n">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>41.2</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="32">
@@ -3356,7 +3359,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>612.0</v>
+        <v>619.0</v>
       </c>
       <c r="C32" t="s">
         <v>111</v>
@@ -3377,10 +3380,10 @@
         <v>207</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J32" t="n">
-        <v>7.3</v>
+        <v>8.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.0</v>
@@ -3392,7 +3395,7 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O32" t="n">
         <v>7.0</v>
@@ -3401,10 +3404,10 @@
         <v>3.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="R32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S32" t="n">
         <v>16.0</v>
@@ -3419,16 +3422,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
       <c r="X32" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y32" t="n">
         <v>8.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>57.9</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="33">
@@ -3436,7 +3439,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1648.0</v>
+        <v>1660.0</v>
       </c>
       <c r="C33" t="s">
         <v>112</v>
@@ -3457,10 +3460,10 @@
         <v>208</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J33" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="K33" t="n">
         <v>2.0</v>
@@ -3478,10 +3481,10 @@
         <v>39.0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="R33" t="n">
         <v>6.0</v>
@@ -3499,16 +3502,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="X33" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="34">
@@ -3516,7 +3519,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>2718.0</v>
+        <v>2735.0</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
@@ -3537,10 +3540,10 @@
         <v>209</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J34" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="K34" t="n">
         <v>2.0</v>
@@ -3579,7 +3582,7 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="X34" t="n">
         <v>9.0</v>
@@ -3602,7 +3605,7 @@
         <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
         <v>164</v>
@@ -3617,7 +3620,7 @@
         <v>210</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J35" t="n">
         <v>13.0</v>
@@ -3659,7 +3662,7 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="X35" t="n">
         <v>5.0</v>
@@ -3676,13 +3679,13 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="C36" t="s">
         <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
         <v>167</v>
@@ -3697,7 +3700,7 @@
         <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J36" t="n">
         <v>1.7</v>
@@ -3756,7 +3759,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>383.0</v>
+        <v>387.0</v>
       </c>
       <c r="C37" t="s">
         <v>116</v>
@@ -3765,7 +3768,7 @@
         <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
         <v>174</v>
@@ -3836,7 +3839,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>2583.0</v>
+        <v>2599.0</v>
       </c>
       <c r="C38" t="s">
         <v>117</v>
@@ -3845,7 +3848,7 @@
         <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
         <v>174</v>
@@ -3860,7 +3863,7 @@
         <v>231</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3902,13 +3905,13 @@
         <v>8.0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>30.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="39">
@@ -3916,7 +3919,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>205.0</v>
+        <v>208.0</v>
       </c>
       <c r="C39" t="s">
         <v>118</v>
@@ -3937,7 +3940,7 @@
         <v>213</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J39" t="n">
         <v>2.5</v>
@@ -3996,13 +3999,13 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1094.0</v>
+        <v>1103.0</v>
       </c>
       <c r="C40" t="s">
         <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
         <v>164</v>
@@ -4076,13 +4079,13 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1662.0</v>
+        <v>1674.0</v>
       </c>
       <c r="C41" t="s">
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
         <v>164</v>
@@ -4097,7 +4100,7 @@
         <v>214</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J41" t="n">
         <v>14.1</v>
@@ -4156,7 +4159,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>2072.0</v>
+        <v>2086.0</v>
       </c>
       <c r="C42" t="s">
         <v>121</v>
@@ -4177,10 +4180,10 @@
         <v>215</v>
       </c>
       <c r="I42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K42" t="n">
         <v>1.0</v>
@@ -4204,7 +4207,7 @@
         <v>7.0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="S42" t="n">
         <v>23.0</v>
@@ -4219,16 +4222,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>116.0</v>
+        <v>122.0</v>
       </c>
       <c r="X42" t="n">
-        <v>103.0</v>
+        <v>107.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>69.1</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="43">
@@ -4236,7 +4239,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>2201.0</v>
+        <v>2215.0</v>
       </c>
       <c r="C43" t="s">
         <v>122</v>
@@ -4257,10 +4260,10 @@
         <v>216</v>
       </c>
       <c r="I43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J43" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="K43" t="n">
         <v>1.0</v>
@@ -4281,13 +4284,13 @@
         <v>3.0</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="R43" t="n">
         <v>19.0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.0</v>
@@ -4299,16 +4302,16 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="X43" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>33.3</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="44">
@@ -4316,7 +4319,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C44" t="s">
         <v>123</v>
@@ -4337,7 +4340,7 @@
         <v>217</v>
       </c>
       <c r="I44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J44" t="n">
         <v>1.2</v>
@@ -4396,13 +4399,13 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1115.0</v>
+        <v>1124.0</v>
       </c>
       <c r="C45" t="s">
         <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>164</v>
@@ -4417,7 +4420,7 @@
         <v>218</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J45" t="n">
         <v>0.8</v>
@@ -4476,7 +4479,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1750.0</v>
+        <v>1763.0</v>
       </c>
       <c r="C46" t="s">
         <v>125</v>
@@ -4485,7 +4488,7 @@
         <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
         <v>174</v>
@@ -4497,7 +4500,7 @@
         <v>219</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J46" t="n">
         <v>1.2</v>
@@ -4556,7 +4559,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>2111.0</v>
+        <v>2125.0</v>
       </c>
       <c r="C47" t="s">
         <v>126</v>
@@ -4636,13 +4639,13 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>2219.0</v>
+        <v>2233.0</v>
       </c>
       <c r="C48" t="s">
         <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>166</v>
@@ -4657,7 +4660,7 @@
         <v>221</v>
       </c>
       <c r="I48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J48" t="n">
         <v>4.3</v>
@@ -4716,13 +4719,13 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>2242.0</v>
+        <v>2256.0</v>
       </c>
       <c r="C49" t="s">
         <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
         <v>167</v>
@@ -4737,7 +4740,7 @@
         <v>222</v>
       </c>
       <c r="I49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -4796,7 +4799,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>2375.0</v>
+        <v>2390.0</v>
       </c>
       <c r="C50" t="s">
         <v>129</v>
@@ -4805,7 +4808,7 @@
         <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
         <v>174</v>
@@ -4817,7 +4820,7 @@
         <v>223</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J50" t="n">
         <v>7.8</v>
@@ -4876,13 +4879,13 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>2561.0</v>
+        <v>2577.0</v>
       </c>
       <c r="C51" t="s">
         <v>130</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
         <v>169</v>
@@ -4897,10 +4900,10 @@
         <v>224</v>
       </c>
       <c r="I51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -4912,10 +4915,10 @@
         <v>0.0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P51" t="n">
         <v>0.0</v>
@@ -4933,7 +4936,7 @@
         <v>0.0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V51" t="n">
         <v>0.0</v>
@@ -4942,13 +4945,13 @@
         <v>1.0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y51" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z51" t="e">
-        <v>#N/A</v>
+      <c r="Z51" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="52">
@@ -4956,13 +4959,13 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>626.0</v>
+        <v>633.0</v>
       </c>
       <c r="C52" t="s">
         <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
         <v>172</v>
@@ -4977,7 +4980,7 @@
         <v>225</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J52" t="n">
         <v>0.3</v>
@@ -5036,16 +5039,16 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>1434.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C53" t="s">
         <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F53" t="s">
         <v>175</v>
@@ -5057,10 +5060,10 @@
         <v>226</v>
       </c>
       <c r="I53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J53" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="K53" t="n">
         <v>0.0</v>
@@ -5075,16 +5078,16 @@
         <v>7.0</v>
       </c>
       <c r="O53" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="P53" t="n">
         <v>3.0</v>
       </c>
       <c r="Q53" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="R53" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S53" t="n">
         <v>7.0</v>
@@ -5099,16 +5102,16 @@
         <v>0.0</v>
       </c>
       <c r="W53" t="n">
-        <v>57.0</v>
+        <v>62.0</v>
       </c>
       <c r="X53" t="n">
         <v>14.0</v>
       </c>
       <c r="Y53" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z53" t="n">
-        <v>41.2</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="54">
@@ -5116,13 +5119,13 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>1907.0</v>
+        <v>1920.0</v>
       </c>
       <c r="C54" t="s">
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
         <v>172</v>
@@ -5137,7 +5140,7 @@
         <v>227</v>
       </c>
       <c r="I54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J54" t="n">
         <v>0.7</v>
@@ -5196,13 +5199,13 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>2004.0</v>
+        <v>2018.0</v>
       </c>
       <c r="C55" t="s">
         <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
         <v>173</v>
@@ -5217,7 +5220,7 @@
         <v>228</v>
       </c>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J55" t="n">
         <v>0.1</v>
@@ -5276,7 +5279,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>2309.0</v>
+        <v>2323.0</v>
       </c>
       <c r="C56" t="s">
         <v>135</v>
@@ -5297,10 +5300,10 @@
         <v>229</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J56" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K56" t="n">
         <v>0.0</v>
@@ -5342,13 +5345,13 @@
         <v>21.0</v>
       </c>
       <c r="X56" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y56" t="n">
         <v>12.0</v>
       </c>
       <c r="Z56" t="n">
-        <v>52.0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="57">
@@ -5356,7 +5359,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>2446.0</v>
+        <v>2461.0</v>
       </c>
       <c r="C57" t="s">
         <v>136</v>
@@ -5377,7 +5380,7 @@
         <v>230</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J57" t="n">
         <v>1.5</v>
@@ -5471,93 +5474,93 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AD1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AE1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AH1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="n">
-        <v>2402.0</v>
+        <v>2417.0</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>167</v>
@@ -5569,22 +5572,22 @@
         <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
         <v>231</v>
       </c>
       <c r="J2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="N2" t="n">
         <v>18.0</v>
@@ -5611,57 +5614,57 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="W2" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="X2" t="n">
         <v>3.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
         <v>49.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.0</v>
+        <v>177.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>2701.0</v>
+        <v>2718.0</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>167</v>
@@ -5673,13 +5676,13 @@
         <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K3" t="n">
         <v>28.0</v>
@@ -5688,7 +5691,7 @@
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="N3" t="n">
         <v>10.0</v>
@@ -5727,13 +5730,13 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.0</v>
+        <v>142.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.38</v>
@@ -5751,24 +5754,24 @@
         <v>0.42</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
-        <v>2344.0</v>
+        <v>2358.0</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>174</v>
@@ -5777,22 +5780,22 @@
         <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J4" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
         <v>8.0</v>
@@ -5828,34 +5831,34 @@
         <v>3.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.0</v>
+        <v>170.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -5863,7 +5866,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="n">
-        <v>1648.0</v>
+        <v>1660.0</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
@@ -5884,19 +5887,19 @@
         <v>208</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J5" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K5" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="N5" t="n">
         <v>8.0</v>
@@ -5923,7 +5926,7 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>9.2</v>
+        <v>9.3</v>
       </c>
       <c r="W5" t="n">
         <v>6.9</v>
@@ -5932,45 +5935,45 @@
         <v>4.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.9</v>
+        <v>11.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.0</v>
+        <v>179.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>1312.0</v>
+        <v>1323.0</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -5985,22 +5988,22 @@
         <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J6" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
         <v>7.0</v>
@@ -6027,43 +6030,43 @@
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>5.9</v>
+        <v>6.0</v>
       </c>
       <c r="W6" t="n">
-        <v>5.9</v>
+        <v>6.0</v>
       </c>
       <c r="X6" t="n">
         <v>1.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.0</v>
+        <v>109.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="AD6" t="n">
         <v>0.05</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -6071,7 +6074,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>1624.0</v>
+        <v>1636.0</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -6092,7 +6095,7 @@
         <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J7" t="n">
         <v>28.0</v>
@@ -6175,7 +6178,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>2346.0</v>
+        <v>2360.0</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -6199,16 +6202,16 @@
         <v>231</v>
       </c>
       <c r="J8" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>22.1</v>
+        <v>23.0</v>
       </c>
       <c r="N8" t="n">
         <v>4.0</v>
@@ -6250,42 +6253,42 @@
         <v>26.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>109.0</v>
+        <v>113.0</v>
       </c>
       <c r="AB8" t="n">
         <v>3.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>2538.0</v>
+        <v>2554.0</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>167</v>
@@ -6297,22 +6300,22 @@
         <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K9" t="n">
         <v>14.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="N9" t="n">
         <v>4.0</v>
@@ -6345,51 +6348,51 @@
         <v>5.2</v>
       </c>
       <c r="X9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="n">
-        <v>2487.0</v>
+        <v>2503.0</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
         <v>167</v>
@@ -6401,10 +6404,10 @@
         <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J10" t="n">
         <v>28.0</v>
@@ -6484,13 +6487,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>1198.0</v>
+        <v>1208.0</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>139</v>
@@ -6505,10 +6508,10 @@
         <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J11" t="n">
         <v>30.0</v>
@@ -6591,16 +6594,16 @@
         <v>76</v>
       </c>
       <c r="B12" t="n">
-        <v>1434.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>175</v>
@@ -6612,19 +6615,19 @@
         <v>226</v>
       </c>
       <c r="I12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J12" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K12" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="N12" t="n">
         <v>3.0</v>
@@ -6651,54 +6654,54 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="W12" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="X12" t="n">
         <v>1.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="AA12" t="n">
         <v>31.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>124.0</v>
+        <v>129.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AD12" t="n">
         <v>0.07</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>303.0</v>
+        <v>306.0</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>139</v>
@@ -6713,13 +6716,13 @@
         <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J13" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K13" t="n">
         <v>13.0</v>
@@ -6728,7 +6731,7 @@
         <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="N13" t="n">
         <v>2.0</v>
@@ -6773,7 +6776,7 @@
         <v>52.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="AC13" t="n">
         <v>0.13</v>
@@ -6782,13 +6785,13 @@
         <v>0.13</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AF13" t="n">
         <v>0.13</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AH13" t="n">
         <v>0.16</v>
@@ -6799,7 +6802,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="n">
-        <v>2375.0</v>
+        <v>2390.0</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -6808,7 +6811,7 @@
         <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>174</v>
@@ -6820,7 +6823,7 @@
         <v>223</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J14" t="n">
         <v>20.0</v>
@@ -6903,7 +6906,7 @@
         <v>61</v>
       </c>
       <c r="B15" t="n">
-        <v>2583.0</v>
+        <v>2599.0</v>
       </c>
       <c r="C15" t="s">
         <v>117</v>
@@ -6912,7 +6915,7 @@
         <v>157</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
         <v>174</v>
@@ -6927,16 +6930,16 @@
         <v>231</v>
       </c>
       <c r="J15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K15" t="n">
         <v>1.0</v>
       </c>
       <c r="L15" t="n">
-        <v>225.0</v>
+        <v>236.0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -6981,25 +6984,25 @@
         <v>6.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="16">
@@ -7007,7 +7010,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
@@ -7028,19 +7031,19 @@
         <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J16" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K16" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
         <v>2.0</v>
@@ -7079,10 +7082,10 @@
         <v>3.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="AB16" t="n">
         <v>31.0</v>
@@ -7094,13 +7097,13 @@
         <v>0.05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AF16" t="n">
         <v>0.1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AH16" t="n">
         <v>0.07</v>
@@ -7111,13 +7114,13 @@
         <v>64</v>
       </c>
       <c r="B17" t="n">
-        <v>1662.0</v>
+        <v>1674.0</v>
       </c>
       <c r="C17" t="s">
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
         <v>164</v>
@@ -7132,7 +7135,7 @@
         <v>214</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J17" t="n">
         <v>16.0</v>
@@ -7215,7 +7218,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>1882.0</v>
+        <v>1895.0</v>
       </c>
       <c r="C18" t="s">
         <v>83</v>
@@ -7236,19 +7239,19 @@
         <v>179</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J18" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K18" t="n">
         <v>28.0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.0</v>
       </c>
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="N18" t="n">
         <v>2.0</v>
@@ -7287,13 +7290,13 @@
         <v>5.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>147.0</v>
+        <v>153.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="AC18" t="n">
         <v>0.08</v>
@@ -7302,16 +7305,16 @@
         <v>0.04</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF18" t="n">
         <v>0.08</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
@@ -7319,7 +7322,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="n">
-        <v>2072.0</v>
+        <v>2086.0</v>
       </c>
       <c r="C19" t="s">
         <v>121</v>
@@ -7340,19 +7343,19 @@
         <v>215</v>
       </c>
       <c r="I19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="K19" t="n">
         <v>26.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>25.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="N19" t="n">
         <v>2.0</v>
@@ -7394,10 +7397,10 @@
         <v>11.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.08</v>
@@ -7415,7 +7418,7 @@
         <v>0.08</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="20">
@@ -7423,7 +7426,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="n">
-        <v>2309.0</v>
+        <v>2323.0</v>
       </c>
       <c r="C20" t="s">
         <v>135</v>
@@ -7444,19 +7447,19 @@
         <v>229</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J20" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
       </c>
       <c r="L20" t="n">
-        <v>291.0</v>
+        <v>300.0</v>
       </c>
       <c r="M20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N20" t="n">
         <v>2.0</v>
@@ -7501,25 +7504,25 @@
         <v>9.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
@@ -7527,7 +7530,7 @@
         <v>60</v>
       </c>
       <c r="B21" t="n">
-        <v>383.0</v>
+        <v>387.0</v>
       </c>
       <c r="C21" t="s">
         <v>116</v>
@@ -7536,7 +7539,7 @@
         <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
         <v>174</v>
@@ -7631,7 +7634,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="n">
-        <v>1750.0</v>
+        <v>1763.0</v>
       </c>
       <c r="C22" t="s">
         <v>125</v>
@@ -7640,7 +7643,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
         <v>174</v>
@@ -7652,7 +7655,7 @@
         <v>219</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J22" t="n">
         <v>8.0</v>
@@ -7732,19 +7735,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="n">
-        <v>1948.0</v>
+        <v>1961.0</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
         <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
         <v>174</v>
@@ -7753,22 +7756,22 @@
         <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J23" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K23" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -7795,10 +7798,10 @@
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X23" t="n">
         <v>1.5</v>
@@ -7807,45 +7810,45 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B24" t="n">
-        <v>2328.0</v>
+        <v>2342.0</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
         <v>166</v>
@@ -7857,22 +7860,22 @@
         <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J24" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L24" t="n">
-        <v>912.0</v>
+        <v>982.0</v>
       </c>
       <c r="M24" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
@@ -7893,7 +7896,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -7905,34 +7908,34 @@
         <v>0.7</v>
       </c>
       <c r="X24" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z24" t="n">
         <v>24.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AH24" t="n">
         <v>0.07</v>
@@ -7943,7 +7946,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>2728.0</v>
+        <v>2745.0</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
@@ -7964,19 +7967,19 @@
         <v>189</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J25" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="L25" t="e">
         <v>#N/A</v>
       </c>
       <c r="M25" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="N25" t="n">
         <v>1.0</v>
@@ -8015,10 +8018,10 @@
         <v>1.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="AB25" t="n">
         <v>1.0</v>
@@ -8047,7 +8050,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="n">
-        <v>205.0</v>
+        <v>208.0</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -8068,7 +8071,7 @@
         <v>213</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J26" t="n">
         <v>10.0</v>
@@ -8148,16 +8151,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>543.0</v>
+        <v>547.0</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
         <v>164</v>
@@ -8169,22 +8172,22 @@
         <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J27" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K27" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -8217,19 +8220,19 @@
         <v>1.7</v>
       </c>
       <c r="X27" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Z27" t="n">
         <v>11.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.04</v>
@@ -8255,7 +8258,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>944.0</v>
+        <v>953.0</v>
       </c>
       <c r="C28" t="s">
         <v>95</v>
@@ -8276,7 +8279,7 @@
         <v>191</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J28" t="n">
         <v>18.0</v>
@@ -8359,7 +8362,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>1238.0</v>
+        <v>1249.0</v>
       </c>
       <c r="C29" t="s">
         <v>97</v>
@@ -8380,7 +8383,7 @@
         <v>193</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" t="n">
         <v>13.0</v>
@@ -8463,7 +8466,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1928.0</v>
+        <v>1941.0</v>
       </c>
       <c r="C30" t="s">
         <v>84</v>
@@ -8484,10 +8487,10 @@
         <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J30" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K30" t="n">
         <v>11.0</v>
@@ -8496,7 +8499,7 @@
         <v>#N/A</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N30" t="n">
         <v>1.0</v>
@@ -8567,7 +8570,7 @@
         <v>66</v>
       </c>
       <c r="B31" t="n">
-        <v>2201.0</v>
+        <v>2215.0</v>
       </c>
       <c r="C31" t="s">
         <v>122</v>
@@ -8588,10 +8591,10 @@
         <v>216</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J31" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K31" t="n">
         <v>21.0</v>
@@ -8600,7 +8603,7 @@
         <v>#N/A</v>
       </c>
       <c r="M31" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="N31" t="n">
         <v>1.0</v>
@@ -8639,28 +8642,28 @@
         <v>2.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.05</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AF31" t="n">
         <v>0.05</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
@@ -8677,7 +8680,7 @@
         <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
         <v>164</v>
@@ -8692,10 +8695,10 @@
         <v>210</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J32" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K32" t="n">
         <v>12.0</v>
@@ -8775,7 +8778,7 @@
         <v>67</v>
       </c>
       <c r="B33" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C33" t="s">
         <v>123</v>
@@ -8796,7 +8799,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J33" t="n">
         <v>2.0</v>
@@ -8879,13 +8882,13 @@
         <v>59</v>
       </c>
       <c r="B34" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="C34" t="s">
         <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
         <v>167</v>
@@ -8900,7 +8903,7 @@
         <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J34" t="n">
         <v>3.0</v>
@@ -8980,16 +8983,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
-        <v>523.0</v>
+        <v>527.0</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
         <v>166</v>
@@ -9001,22 +9004,22 @@
         <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J35" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K35" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -9037,7 +9040,7 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -9049,51 +9052,51 @@
         <v>1.9</v>
       </c>
       <c r="X35" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y35" t="n">
         <v>7.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>155.0</v>
+        <v>157.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AF35" t="n">
         <v>0.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
-        <v>555.0</v>
+        <v>560.0</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
         <v>166</v>
@@ -9105,22 +9108,22 @@
         <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I36" t="s">
         <v>231</v>
       </c>
       <c r="J36" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K36" t="n">
         <v>30.0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>29.0</v>
       </c>
       <c r="L36" t="e">
         <v>#N/A</v>
       </c>
       <c r="M36" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -9162,7 +9165,7 @@
         <v>19.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>131.0</v>
+        <v>134.0</v>
       </c>
       <c r="AB36" t="n">
         <v>13.0</v>
@@ -9171,16 +9174,16 @@
         <v>0.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AF36" t="n">
         <v>0.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH36" t="n">
         <v>0.01</v>
@@ -9191,13 +9194,13 @@
         <v>68</v>
       </c>
       <c r="B37" t="n">
-        <v>1115.0</v>
+        <v>1124.0</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
         <v>164</v>
@@ -9212,7 +9215,7 @@
         <v>218</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J37" t="n">
         <v>5.0</v>
@@ -9292,16 +9295,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="n">
-        <v>1293.0</v>
+        <v>1304.0</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
         <v>164</v>
@@ -9313,10 +9316,10 @@
         <v>176</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J38" t="n">
         <v>21.0</v>
@@ -9396,16 +9399,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>1297.0</v>
+        <v>1308.0</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
         <v>164</v>
@@ -9417,10 +9420,10 @@
         <v>176</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J39" t="n">
         <v>27.0</v>
@@ -9500,13 +9503,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
-        <v>1686.0</v>
+        <v>1698.0</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
         <v>154</v>
@@ -9521,7 +9524,7 @@
         <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I40" t="s">
         <v>231</v>
@@ -9604,13 +9607,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="n">
-        <v>1836.0</v>
+        <v>1849.0</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
         <v>146</v>
@@ -9625,10 +9628,10 @@
         <v>176</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J41" t="n">
         <v>31.0</v>
@@ -9711,7 +9714,7 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>2111.0</v>
+        <v>2125.0</v>
       </c>
       <c r="C42" t="s">
         <v>126</v>
@@ -9815,13 +9818,13 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>2219.0</v>
+        <v>2233.0</v>
       </c>
       <c r="C43" t="s">
         <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
         <v>166</v>
@@ -9836,7 +9839,7 @@
         <v>221</v>
       </c>
       <c r="I43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J43" t="n">
         <v>11.0</v>
@@ -9919,13 +9922,13 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>2242.0</v>
+        <v>2256.0</v>
       </c>
       <c r="C44" t="s">
         <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
         <v>167</v>
@@ -9940,7 +9943,7 @@
         <v>222</v>
       </c>
       <c r="I44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J44" t="n">
         <v>1.0</v>
@@ -10020,16 +10023,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B45" t="n">
-        <v>2391.0</v>
+        <v>2406.0</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>164</v>
@@ -10041,22 +10044,22 @@
         <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J45" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K45" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L45" t="e">
         <v>#N/A</v>
       </c>
       <c r="M45" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -10077,7 +10080,7 @@
         <v>0.0</v>
       </c>
       <c r="T45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U45" t="n">
         <v>0.0</v>
@@ -10098,7 +10101,7 @@
         <v>23.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>83.0</v>
+        <v>89.0</v>
       </c>
       <c r="AB45" t="n">
         <v>28.0</v>
@@ -10127,13 +10130,13 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>2561.0</v>
+        <v>2577.0</v>
       </c>
       <c r="C46" t="s">
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
         <v>169</v>
@@ -10148,19 +10151,19 @@
         <v>224</v>
       </c>
       <c r="I46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L46" t="n">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -10231,7 +10234,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>612.0</v>
+        <v>619.0</v>
       </c>
       <c r="C47" t="s">
         <v>111</v>
@@ -10252,19 +10255,19 @@
         <v>207</v>
       </c>
       <c r="I47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J47" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K47" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L47" t="n">
-        <v>660.0</v>
+        <v>741.0</v>
       </c>
       <c r="M47" t="n">
-        <v>7.3</v>
+        <v>8.2</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -10303,31 +10306,31 @@
         <v>2.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="AC47" t="n">
         <v>0.0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AF47" t="n">
         <v>0.0</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="48">
@@ -10335,13 +10338,13 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>626.0</v>
+        <v>633.0</v>
       </c>
       <c r="C48" t="s">
         <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>172</v>
@@ -10356,7 +10359,7 @@
         <v>225</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J48" t="n">
         <v>3.0</v>
@@ -10436,13 +10439,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>859.0</v>
+        <v>868.0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
         <v>145</v>
@@ -10457,22 +10460,22 @@
         <v>176</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J49" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K49" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="L49" t="e">
         <v>#N/A</v>
       </c>
       <c r="M49" t="n">
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -10514,7 +10517,7 @@
         <v>0.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB49" t="n">
         <v>0.0</v>
@@ -10543,13 +10546,13 @@
         <v>63</v>
       </c>
       <c r="B50" t="n">
-        <v>1094.0</v>
+        <v>1103.0</v>
       </c>
       <c r="C50" t="s">
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
         <v>164</v>
@@ -10647,13 +10650,13 @@
         <v>40</v>
       </c>
       <c r="B51" t="n">
-        <v>1112.0</v>
+        <v>1121.0</v>
       </c>
       <c r="C51" t="s">
         <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
         <v>164</v>
@@ -10668,7 +10671,7 @@
         <v>192</v>
       </c>
       <c r="I51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J51" t="n">
         <v>9.0</v>
@@ -10751,7 +10754,7 @@
         <v>26</v>
       </c>
       <c r="B52" t="n">
-        <v>1188.0</v>
+        <v>1198.0</v>
       </c>
       <c r="C52" t="s">
         <v>82</v>
@@ -10772,19 +10775,19 @@
         <v>178</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="J52" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K52" t="n">
         <v>35.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>34.0</v>
       </c>
       <c r="L52" t="e">
         <v>#N/A</v>
       </c>
       <c r="M52" t="n">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -10817,7 +10820,7 @@
         <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y52" t="n">
         <v>6.2</v>
@@ -10826,25 +10829,25 @@
         <v>22.0</v>
       </c>
       <c r="AA52" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="AB52" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="AC52" t="n">
         <v>0.0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF52" t="n">
         <v>0.0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH52" t="n">
         <v>0.05</v>
@@ -10855,13 +10858,13 @@
         <v>77</v>
       </c>
       <c r="B53" t="n">
-        <v>1907.0</v>
+        <v>1920.0</v>
       </c>
       <c r="C53" t="s">
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
         <v>172</v>
@@ -10876,7 +10879,7 @@
         <v>227</v>
       </c>
       <c r="I53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J53" t="n">
         <v>8.0</v>
@@ -10959,13 +10962,13 @@
         <v>78</v>
       </c>
       <c r="B54" t="n">
-        <v>2004.0</v>
+        <v>2018.0</v>
       </c>
       <c r="C54" t="s">
         <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
         <v>173</v>
@@ -10980,7 +10983,7 @@
         <v>228</v>
       </c>
       <c r="I54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J54" t="n">
         <v>3.0</v>
@@ -11060,16 +11063,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B55" t="n">
-        <v>2148.0</v>
+        <v>2162.0</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -11081,22 +11084,22 @@
         <v>176</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J55" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K55" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="L55" t="n">
-        <v>865.0</v>
+        <v>955.0</v>
       </c>
       <c r="M55" t="n">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="N55" t="n">
         <v>0.0</v>
@@ -11117,7 +11120,7 @@
         <v>0.0</v>
       </c>
       <c r="T55" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U55" t="n">
         <v>1.0</v>
@@ -11135,31 +11138,31 @@
         <v>3.4</v>
       </c>
       <c r="Z55" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA55" t="n">
-        <v>27.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB55" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC55" t="n">
         <v>0.0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AF55" t="n">
         <v>0.0</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="56">
@@ -11167,7 +11170,7 @@
         <v>80</v>
       </c>
       <c r="B56" t="n">
-        <v>2446.0</v>
+        <v>2461.0</v>
       </c>
       <c r="C56" t="s">
         <v>136</v>
@@ -11188,7 +11191,7 @@
         <v>230</v>
       </c>
       <c r="I56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J56" t="n">
         <v>2.0</v>
@@ -11271,7 +11274,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>2718.0</v>
+        <v>2735.0</v>
       </c>
       <c r="C57" t="s">
         <v>113</v>
@@ -11292,19 +11295,19 @@
         <v>209</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J57" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K57" t="n">
         <v>6.0</v>
       </c>
       <c r="L57" t="n">
-        <v>648.0</v>
+        <v>673.0</v>
       </c>
       <c r="M57" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="N57" t="n">
         <v>0.0</v>
@@ -11343,13 +11346,13 @@
         <v>1.1</v>
       </c>
       <c r="Z57" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA57" t="n">
         <v>35.0</v>
       </c>
       <c r="AB57" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC57" t="n">
         <v>0.0</v>
@@ -11367,7 +11370,7 @@
         <v>0.0</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
